--- a/MatchTA_Server/Capstone_Input_Files/File1-Spring-2025-TA-Graders-PhD_Master-information.xlsx
+++ b/MatchTA_Server/Capstone_Input_Files/File1-Spring-2025-TA-Graders-PhD_Master-information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/Senior Classes/Working Project/capstone_server/Capstone_Input_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/768b4079c1f233a9/MatchTA/MatchTA_Server/Capstone_Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_DA08971E493005EB37367688E5BCDFCCB6D46962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9482C29E-A4DF-472D-8A0A-5F86D6E4393E}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_DA08971E493005EB37367688E5BCDFCCB6D46962" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D99455ED-60A7-48E1-88F0-2E17D79886FC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spring-2025-TA-Graders-PhD_Mast" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>Headcount</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>total TA hrs</t>
+  </si>
+  <si>
+    <t>Grad Level</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -817,22 +816,25 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="91.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="189.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="91.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="189.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -852,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -875,7 +877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -898,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -921,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -944,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -967,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -990,7 +992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1015,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1105,7 +1107,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1128,7 +1130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1151,7 +1153,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1266,7 +1268,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1358,7 +1360,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1399,7 +1401,7 @@
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -1417,7 +1419,7 @@
       </c>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1437,7 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1453,7 +1455,7 @@
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1471,7 +1473,7 @@
       </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1489,7 +1491,7 @@
       </c>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1507,7 +1509,7 @@
       </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1522,7 +1524,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -1537,7 +1539,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -1552,7 +1554,7 @@
       </c>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -1567,7 +1569,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -1582,7 +1584,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -1597,7 +1599,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>105</v>
       </c>
@@ -1612,7 +1614,7 @@
       </c>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -1627,12 +1629,12 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
         <f>SUM(B2:B39)</f>
         <v>38</v>
@@ -1643,7 +1645,7 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>114</v>
       </c>
